--- a/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
+++ b/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">Plank Length</t>
   </si>
@@ -23,10 +23,229 @@
     <t xml:space="preserve">Waste</t>
   </si>
   <si>
-    <t xml:space="preserve">2000[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000[1]</t>
+    <t xml:space="preserve">7039[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7031[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7017[12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6998[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6995[27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6987[17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6986[49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6979[22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6975[32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6974[9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6964[44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6946[14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6940[39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6926[29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6921[24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6917[19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6899[34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6856[46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6847[11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6839[41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6831[36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6804[26], 242[18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6804[35], 237[23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6797[6], 252[8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6794[30], 247[28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6789[10], 227[13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6784[31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6779[21], 267[43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6774[1], 272[33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6769[50], 272[38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6769[16], 272[48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6769[40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6764[15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6759[20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6749[45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6739[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6734[25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6050[47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6050[42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6050[37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3854[43], 3152[36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3854[38], 3152[46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3829[48], 3147[41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3814[33], 3132[31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3804[8], 3117[26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3784[23], 3113[16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3784[13], 3112[21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3774[28], 3097[6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3754[18], 3092[11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3067[43], 3062[33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3059[38], 3057[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3052[23], 3050[18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3047[28], 3044[48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3027[8], 3022[13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422[36], 2417[41], 2207[44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2412[45], 2407[40], 2222[49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2407[50], 2397[35], 2217[19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2387[31], 2387[46], 2275[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2382[26], 2377[30], 2287[17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2372[25], 2372[30], 2302[42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2357[20], 2352[40], 2337[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2352[20], 2352[25], 2342[45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2348[6], 2347[15], 2347[21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2347[15], 2342[50], 2342[10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2337[35], 2332[10], 2322[11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2322[47], 2317[16], 2312[22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2312[5], 2312[1], 2297[27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2282[2], 2272[32], 2272[12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2272[14], 2267[9], 2262[37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2252[4], 2217[29], 2212[34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2212[24], 2202[39], 1312[32], 1307[27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1292[7], 1292[17], 1292[37], 1289[12], 1282[47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1282[22], 1277[2], 1277[9], 1272[49], 1272[14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1272[44], 1267[29], 1262[42], 1262[39], 1257[19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1257[34], 1252[24], 1252[4], 1009[42], 1007[37], 1002[47]</t>
   </si>
 </sst>
 </file>
@@ -89,24 +308,827 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2000</v>
+        <v>7050</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2000</v>
+        <v>7050</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>7050</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>7050</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>7050</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7050</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7050</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7050</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>7050</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>7050</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>7050</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>7050</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>7050</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>7050</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>7050</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>7050</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>7050</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>7050</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>7050</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>7050</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>7050</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>7050</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>7050</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>7050</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>7050</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>7050</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>7050</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>7050</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>7050</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>7050</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>7050</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>7050</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>7050</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>7050</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>7050</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>7050</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>7050</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>6050</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>6050</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>6050</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>7050</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>7050</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>7050</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>7050</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>7050</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>7050</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>7050</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>7050</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>7050</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>7050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>7050</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>7050</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>7050</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>6050</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>7050</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>7050</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>7050</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>7050</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>7050</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>7050</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>7050</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>7050</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>7050</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>7050</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>7050</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>7050</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>7050</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>7050</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>7050</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>7050</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>7050</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>7050</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>7050</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>7050</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>7050</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
+++ b/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t xml:space="preserve">Plank Length</t>
   </si>
@@ -23,7 +23,157 @@
     <t xml:space="preserve">Waste</t>
   </si>
   <si>
-    <t xml:space="preserve">6000[1/1]</t>
+    <t xml:space="preserve">6900 ~ 6850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6700[9/38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7000 ~ 6950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6150[7/30], 470[5/22], 330[7/29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6150[8/34], 470[3/14], 330[7/30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6110[9/39], 470[4/18], 360[2/9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6110[9/39], 470[6/26], 360[2/10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[5/20], 1450[1/5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[6/24], 1450[2/10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[4/16], 1450[1/6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[7/28], 1450[2/9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[8/32], 1430[7/30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[3/12], 1430[7/29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[1/4], 1430[8/33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[2/8], 1430[8/34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5440[7/31], 1100[9/37], 400[9/39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5225[2/9], 1600[7/31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5225[2/9], 1100[9/38], 360[1/6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5225[1/5], 360[1/5], 330[8/33], 330[8/34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000 ~ 5950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5225[1/5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5110[9/36], 1820[7/31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5110[9/36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800[9/37], 2070[9/39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800[9/37], 1870[5/20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[4/19], 2200[9/39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[5/23], 2170[4/19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[8/35], 2170[2/11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[2/11], 2170[2/8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[6/27], 2170[4/16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[3/15], 2170[3/12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[1/7], 2170[3/15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4510[3/13], 2170[3/15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4510[3/13], 2170[2/11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[6/25], 2770[5/22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[5/21], 2770[6/26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[4/17], 2770[3/14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[5/22], 2770[6/25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[4/18], 2770[5/21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[3/14], 2770[4/18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[6/26], 2770[4/17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3750[8/33], 2600[3/13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3750[7/29], 2170[1/7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3680[7/31], 2170[4/19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[1/7], 2170[6/24], 2170[5/20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[9/36], 2170[5/23], 2170[5/23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[8/35], 2170[6/27], 2170[8/35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[6/27], 2170[7/28], 2170[1/4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[8/32], 1870[9/36], 1870[3/12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870[8/32], 1870[1/4], 1870[7/28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870[4/16], 1870[2/8], 1870[6/24]</t>
   </si>
 </sst>
 </file>
@@ -85,14 +235,542 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>6000</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
+++ b/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Plank Length</t>
   </si>
@@ -23,123 +23,126 @@
     <t xml:space="preserve">6900 ~ 6850</t>
   </si>
   <si>
+    <t xml:space="preserve">6700[9/38], 4.5[/], 0[/]</t>
+  </si>
+  <si>
     <t xml:space="preserve">6700[9/38]</t>
   </si>
   <si>
-    <t xml:space="preserve">5225[2/9], 1600[7/31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5225[2/9], 1100[9/38], 360[1/6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5225[1/5], 360[1/5], 330[8/33], 330[8/34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4800[9/37], 1870[5/20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[4/19], 2200[9/39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[5/23], 2170[4/19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[8/35], 2170[2/11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[2/11], 2170[2/8]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[6/27], 2170[4/16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[3/15], 2170[3/12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[1/7], 2170[3/15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4510[3/13], 2170[3/15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4510[3/13], 2170[2/11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3950[6/25], 2770[5/22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3950[5/21], 2770[6/26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3950[4/17], 2770[3/14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3910[5/22], 2770[6/25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3910[4/18], 2770[5/21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3910[3/14], 2770[4/18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3910[6/26], 2770[4/17]</t>
+    <t xml:space="preserve">5225[1/5], 1600[7/31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5225[1/5], 1100[9/38], 360[1/6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5225[2/9], 360[2/10], 330[7/30], 330[7/29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800[9/37], 1870[2/8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[6/27], 2200[9/39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[5/23], 2170[4/16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[2/11], 2170[4/19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[4/19], 2170[4/19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[3/15], 2170[3/15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[1/7], 2170[5/20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[8/35], 2170[5/23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4510[3/13], 2170[5/23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4510[3/13], 2170[2/8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[5/21], 2770[4/18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[4/17], 2770[6/25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[6/25], 2770[4/17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[4/18], 2770[3/14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[5/22], 2770[5/21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[3/14], 2770[6/26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[6/26], 2770[5/22]</t>
   </si>
   <si>
     <t xml:space="preserve">3750[8/33], 2600[3/13]</t>
   </si>
   <si>
-    <t xml:space="preserve">2170[1/7], 2170[6/24], 2170[5/20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[9/36], 2170[5/23], 2170[5/23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[8/35], 2170[6/27], 2170[8/35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[6/27], 2170[7/28], 2170[1/4]</t>
+    <t xml:space="preserve">2170[8/35], 2170[8/35], 2170[1/7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[1/7], 2170[3/12], 2170[8/32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[2/11], 2170[3/15], 2170[7/28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[6/27], 2170[6/27], 2170[6/24]</t>
   </si>
   <si>
     <t xml:space="preserve">7000 ~ 6950</t>
   </si>
   <si>
-    <t xml:space="preserve">6150[7/30], 470[5/22], 330[7/29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6150[8/34], 470[3/14], 330[7/30]</t>
+    <t xml:space="preserve">6150[7/30], 470[3/14], 330[8/34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6150[8/34], 470[6/26], 330[8/33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6110[9/39], 470[5/22], 360[1/5]</t>
   </si>
   <si>
     <t xml:space="preserve">6110[9/39], 470[4/18], 360[2/9]</t>
   </si>
   <si>
-    <t xml:space="preserve">6110[9/39], 470[6/26], 360[2/10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[5/20], 1450[1/5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[6/24], 1450[2/10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[4/16], 1450[1/6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[7/28], 1450[2/9]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[8/32], 1430[7/30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[3/12], 1430[7/29]</t>
+    <t xml:space="preserve">5500[2/8], 1450[2/9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[8/32], 1450[2/10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[7/28], 1450[1/5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[5/20], 1450[1/6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[4/16], 1430[7/30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[3/12], 1430[8/34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5500[6/24], 1430[7/29]</t>
   </si>
   <si>
     <t xml:space="preserve">5500[1/4], 1430[8/33]</t>
   </si>
   <si>
-    <t xml:space="preserve">5500[2/8], 1430[8/34]</t>
-  </si>
-  <si>
     <t xml:space="preserve">5440[7/31], 1100[9/37], 400[9/39]</t>
   </si>
   <si>
@@ -152,25 +155,25 @@
     <t xml:space="preserve">6000 ~ 5950</t>
   </si>
   <si>
-    <t xml:space="preserve">5225[1/5]</t>
+    <t xml:space="preserve">5225[2/9]</t>
   </si>
   <si>
     <t xml:space="preserve">5110[9/36]</t>
   </si>
   <si>
-    <t xml:space="preserve">3750[7/29], 2170[1/7]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3680[7/31], 2170[4/19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[8/32], 1870[9/36], 1870[3/12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1870[8/32], 1870[1/4], 1870[7/28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1870[4/16], 1870[2/8], 1870[6/24]</t>
+    <t xml:space="preserve">3750[7/29], 2170[1/4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3680[7/31], 2170[9/36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170[2/11], 1870[3/12], 1870[1/4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870[9/36], 1870[5/20], 1870[4/16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870[6/24], 1870[8/32], 1870[7/28]</t>
   </si>
 </sst>
 </file>
@@ -239,13 +242,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -254,7 +257,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -263,7 +266,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>165</v>
@@ -272,7 +275,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>605</v>
@@ -281,7 +284,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>180</v>
@@ -290,7 +293,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>70</v>
@@ -299,7 +302,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -308,7 +311,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -317,7 +320,7 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -326,7 +329,7 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -335,7 +338,7 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -344,7 +347,7 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -353,7 +356,7 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>170</v>
@@ -362,7 +365,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>170</v>
@@ -371,7 +374,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>130</v>
@@ -380,7 +383,7 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>130</v>
@@ -389,7 +392,7 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>130</v>
@@ -398,7 +401,7 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>170</v>
@@ -407,7 +410,7 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>170</v>
@@ -416,7 +419,7 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>170</v>
@@ -425,7 +428,7 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>170</v>
@@ -434,7 +437,7 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>500</v>
@@ -443,7 +446,7 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>340</v>
@@ -452,7 +455,7 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>340</v>
@@ -461,7 +464,7 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>340</v>
@@ -470,7 +473,7 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>340</v>
@@ -478,13 +481,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -493,7 +496,7 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -502,7 +505,7 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -511,7 +514,7 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -520,7 +523,7 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -529,7 +532,7 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -538,7 +541,7 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -547,7 +550,7 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -556,7 +559,7 @@
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -565,7 +568,7 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -574,7 +577,7 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -583,7 +586,7 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -592,7 +595,7 @@
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -601,7 +604,7 @@
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -610,7 +613,7 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>80</v>
@@ -618,13 +621,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>725</v>
@@ -633,7 +636,7 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>840</v>
@@ -642,7 +645,7 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>30</v>
@@ -651,7 +654,7 @@
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>100</v>
@@ -660,7 +663,7 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>40</v>
@@ -669,7 +672,7 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>340</v>
@@ -678,7 +681,7 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>340</v>

--- a/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
+++ b/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
@@ -12,18 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t xml:space="preserve">Plank Sizes</t>
   </si>
   <si>
-    <t xml:space="preserve">6900 X 27 = 8200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7000 X 15 = 7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6000 X 7 = 6300</t>
+    <t xml:space="preserve">5000 X 72 = 8550</t>
   </si>
   <si>
     <t xml:space="preserve">Plank Length</t>
@@ -32,157 +26,211 @@
     <t xml:space="preserve">Snippet [Floor/Apartment]</t>
   </si>
   <si>
-    <t xml:space="preserve">6900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6700[9/38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5225[2/9], 1600[7/31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5225[2/9], 1100[9/38], 360[1/6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5225[1/5], 360[1/5], 330[8/33], 330[8/34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4800[9/37], 1870[5/20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[4/19], 2200[9/39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[5/23], 2170[4/19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[8/35], 2170[2/11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[2/11], 2170[2/8]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[6/27], 2170[4/16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[3/15], 2170[3/12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4580[1/7], 2170[3/15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4510[3/13], 2170[3/15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4510[3/13], 2170[2/11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3950[6/25], 2770[5/22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3950[5/21], 2770[6/26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3950[4/17], 2770[3/14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3910[5/22], 2770[6/25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3910[4/18], 2770[5/21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3910[3/14], 2770[4/18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3910[6/26], 2770[4/17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3750[8/33], 2600[3/13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[1/7], 2170[6/24], 2170[5/20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[9/36], 2170[5/23], 2170[5/23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[8/35], 2170[6/27], 2170[8/35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[6/27], 2170[7/28], 2170[1/4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6150[7/30], 470[5/22], 330[7/29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6150[8/34], 470[3/14], 330[7/30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6110[9/39], 470[4/18], 360[2/9]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6110[9/39], 470[6/26], 360[2/10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[5/20], 1450[1/5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[6/24], 1450[2/10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[4/16], 1450[1/6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[7/28], 1450[2/9]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[8/32], 1430[7/30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[3/12], 1430[7/29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[1/4], 1430[8/33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5500[2/8], 1430[8/34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5440[7/31], 1100[9/37], 400[9/39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5110[9/36], 1820[7/31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4800[9/37], 2070[9/39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5225[1/5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5110[9/36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3750[7/29], 2170[1/7]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3680[7/31], 2170[4/19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170[8/32], 1870[9/36], 1870[3/12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1870[8/32], 1870[1/4], 1870[7/28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1870[4/16], 1870[2/8], 1870[6/24]</t>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800[9/37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4746.667[-/-]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[1/7], 360[1/6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[2/11], 360[2/9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[5/23], 360[2/10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[8/35], 360[1/5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[3/15], 330[7/29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[6/27], 330[7/30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4580[4/19], 330[8/33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4510[3/13], 400[9/39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4510[3/13], 330[8/34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4466.667[9/38], 470[5/22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4466.667[9/38], 470[3/14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4466.667[9/38], 470[4/18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4073.333[9/39], 470[6/26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4073.333[9/39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[6/25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[4/17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3950[5/21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[6/26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[4/18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[3/14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910[5/22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3750[8/33], 1100[9/37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3750[7/29], 1100[9/38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3680[7/31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3483.333[1/5], 1450[2/10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3483.333[2/9], 1450[1/5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3483.333[1/5], 1450[2/9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3483.333[2/9], 1450[1/6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3483.333[1/5], 1430[7/30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3483.333[2/9], 1430[8/34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3406.667[9/36], 1430[7/29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3406.667[9/36], 1430[8/33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3406.667[9/36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3075[7/30], 1870[4/16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3075[8/34], 1870[2/8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3075[8/34], 1870[9/36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3075[7/30], 1870[6/24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770[6/25], 2170[3/12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770[6/26], 2170[5/23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770[5/22], 2170[1/7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770[5/21], 2170[3/15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770[4/17], 2170[2/11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770[4/18], 2170[2/11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770[3/14], 2170[8/35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[5/20], 2200[9/39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[5/20], 2170[8/35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[3/12], 2170[9/36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[2/8], 2170[2/8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[4/16], 2170[1/7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[2/8], 2170[8/32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[4/16], 2170[3/15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[3/12], 2170[6/27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[6/24], 2170[5/23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[1/4], 2170[4/16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[6/24], 2170[7/28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[1/4], 2170[6/24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[7/28], 2170[4/19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[8/32], 2170[4/19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[7/28], 2170[1/4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750[8/32], 2170[6/27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2720[7/31], 2170[5/20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2720[7/31], 2070[9/39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2600[3/13], 1870[3/12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870[7/28], 1870[5/20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870[8/32], 1820[7/31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600[7/31]</t>
   </si>
 </sst>
 </file>
@@ -242,332 +290,450 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>33</v>
+      <c r="A35"/>
+      <c r="B35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44"/>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48"/>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50"/>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>49</v>
+      <c r="A51"/>
+      <c r="B51" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
       <c r="A56"/>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68"/>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69"/>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71"/>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72"/>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73"/>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75"/>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77"/>
+      <c r="B77" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
+++ b/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
@@ -12,18 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
-  <si>
-    <t xml:space="preserve">18.12.2019 09:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plank Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snippet [Floor/Apartment]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+  <si>
+    <t xml:space="preserve">19.12.2019 08:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6300 X 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snippets [Floor/Apartment]</t>
   </si>
   <si>
     <t xml:space="preserve">Waste</t>
@@ -314,40 +320,27 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>150</v>
-      </c>
     </row>
     <row r="8">
-      <c r="B8" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="5">
-        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -355,60 +348,60 @@
         <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5">
-        <v>605</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
-        <v>70</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
-        <v>100</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>100</v>
@@ -416,7 +409,7 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5">
         <v>100</v>
@@ -424,7 +417,7 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <v>100</v>
@@ -432,71 +425,71 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5">
         <v>170</v>
@@ -504,84 +497,84 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5">
-        <v>500</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="5">
-        <v>340</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5">
-        <v>340</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="5">
-        <v>340</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5">
         <v>340</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5">
+        <v>340</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="5">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -589,23 +582,23 @@
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="5">
         <v>0</v>
@@ -613,31 +606,31 @@
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="5">
         <v>20</v>
@@ -645,15 +638,15 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="5">
         <v>20</v>
@@ -661,80 +654,104 @@
     </row>
     <row r="48">
       <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>48</v>
+      <c r="C49" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="5">
-        <v>725</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C51" s="5">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="5">
-        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="5">
-        <v>100</v>
+        <v>725</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="5">
-        <v>40</v>
+        <v>840</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="5">
-        <v>340</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C57" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="5">
         <v>340</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
+    <row r="59">
+      <c r="B59" t="s">
         <v>57</v>
+      </c>
+      <c r="C59" s="5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
+++ b/VralumGlassWeb/wwwroot/storage/SmartCutCalculation.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
-    <t xml:space="preserve">19.12.2019 08:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project name</t>
+    <t xml:space="preserve">19.12.2019 09:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">Columns</t>
   </si>
   <si>
-    <t xml:space="preserve">6300 X 0</t>
+    <t xml:space="preserve">10 p. 6300 X 2</t>
   </si>
   <si>
     <t xml:space="preserve">Planks</t>
@@ -301,7 +301,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.53125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.59375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.0625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="19.53125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
